--- a/AutoFirmwareUpgrade/PQStandalone/TestData/PQStandalone_Ckt_ParamOnly/2M3U.xlsx
+++ b/AutoFirmwareUpgrade/PQStandalone/TestData/PQStandalone_Ckt_ParamOnly/2M3U.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756CC0C7-68F6-48C5-8746-E8938477A08A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE089C91-736E-4EE5-923C-73A0E8F570D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -4075,7 +4075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB60A5-616C-4D57-894C-AB01E6547C42}">
   <dimension ref="A1:C1098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="C71" sqref="C71:C374"/>
     </sheetView>
   </sheetViews>
@@ -10219,8 +10219,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10306,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
@@ -10343,8 +10343,8 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>67</v>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -10375,8 +10375,8 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -10680,8 +10680,8 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>67</v>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="W11" t="s">
         <v>24</v>
@@ -10718,8 +10718,8 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>67</v>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
@@ -10753,8 +10753,8 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
-        <v>67</v>
+      <c r="J13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
